--- a/biology/Botanique/Mycosphaerella/Mycosphaerella.xlsx
+++ b/biology/Botanique/Mycosphaerella/Mycosphaerella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycosphaerella est un genre de champignons ascomycètes de la famille des Mycosphaerellaceae.
-Ce genre, le plus vaste parmi les champignons ascomycètes est le plus important chez les champignons phytopathogènes. Il comprend plus de 10 000 espèces, en y incluant ses genres anamorphes, parmi lesquels les plus notables sont Septoria, Cercospora, Pseudocercospora, Ramularia, Dothistroma, etc[2].
+Ce genre, le plus vaste parmi les champignons ascomycètes est le plus important chez les champignons phytopathogènes. Il comprend plus de 10 000 espèces, en y incluant ses genres anamorphes, parmi lesquels les plus notables sont Septoria, Cercospora, Pseudocercospora, Ramularia, Dothistroma, etc.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Index Fungorum                                      (24 novembre 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (24 novembre 2014) :
 Ascospora Fr., 1825 ;
 Cercosphaerella Kleb., 1918 ;
 Cyclodothis Syd. &amp; P. Syd., 1913 ;
@@ -557,9 +571,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (24 novembre 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (24 novembre 2014) :
 Mycosphaerella abutilontidicola
 Mycosphaerella acaciae
 Mycosphaerella acanthopanacis
@@ -1834,7 +1850,7 @@
 Mycosphaerella viburnicola
 Mycosphaerella viciae
 Mycosphaerella viciarum
-Mycosphaerella viega</t>
+Mycosphaerella viegasii</t>
         </is>
       </c>
     </row>
